--- a/results/mp/deberta/corona/confidence/210/stop-words-0.15/avg_0.002_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/210/stop-words-0.15/avg_0.002_scores.xlsx
@@ -121,13 +121,13 @@
     <t>fresh</t>
   </si>
   <si>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>ensure</t>
-  </si>
-  <si>
-    <t>support</t>
   </si>
   <si>
     <t>nice</t>
@@ -1455,25 +1455,25 @@
         <v>35</v>
       </c>
       <c r="K23">
-        <v>0.670995670995671</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L23">
-        <v>155</v>
+        <v>16</v>
       </c>
       <c r="M23">
-        <v>163</v>
+        <v>16</v>
       </c>
       <c r="N23">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O23">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>76</v>
+        <v>8</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1481,25 +1481,25 @@
         <v>36</v>
       </c>
       <c r="K24">
-        <v>0.6666666666666666</v>
+        <v>0.6601941747572816</v>
       </c>
       <c r="L24">
-        <v>16</v>
+        <v>68</v>
       </c>
       <c r="M24">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="N24">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24">
-        <v>8</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1507,25 +1507,25 @@
         <v>37</v>
       </c>
       <c r="K25">
-        <v>0.6601941747572816</v>
+        <v>0.6485355648535565</v>
       </c>
       <c r="L25">
-        <v>68</v>
+        <v>155</v>
       </c>
       <c r="M25">
-        <v>71</v>
+        <v>155</v>
       </c>
       <c r="N25">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>35</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1741,25 +1741,25 @@
         <v>46</v>
       </c>
       <c r="K34">
-        <v>0.551829268292683</v>
+        <v>0.5323529411764706</v>
       </c>
       <c r="L34">
         <v>181</v>
       </c>
       <c r="M34">
-        <v>193</v>
+        <v>181</v>
       </c>
       <c r="N34">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O34">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>147</v>
+        <v>159</v>
       </c>
     </row>
     <row r="35" spans="10:17">
